--- a/data/trans_dic/P7C_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P7C_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas &lt; 6 años</t>
+          <t>Hogares con personas &lt; 6 años (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>20,33%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>17,33%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>18,5%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>18,18%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>17,22%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>26,33%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,95; 24,21</t>
+          <t>14,48; 28,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,75; 25,0</t>
+          <t>13,56; 26,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,76; 24,32</t>
+          <t>13,5; 26,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,32; 26,52</t>
+          <t>12,26; 25,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,6; 18,92</t>
+          <t>19,47; 53,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,45; 18,94</t>
+          <t>13,55; 24,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,41; 19,1</t>
+          <t>12,96; 23,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,47; 18,42</t>
+          <t>12,52; 22,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,33; 19,62</t>
+          <t>11,9; 21,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,24; 20,3</t>
+          <t>17,15; 29,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,22; 19,86</t>
+          <t>15,17; 23,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,69; 21,01</t>
+          <t>14,75; 22,73</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>14,64; 22,78</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>13,42; 21,49</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>20,46; 40,4</t>
         </is>
       </c>
     </row>
@@ -796,27 +851,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -826,32 +881,47 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>30,68%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>18,31%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>17,49%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>17,63%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>25,36%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,23; 14,34</t>
+          <t>5,53; 16,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,66; 25,44</t>
+          <t>5,58; 17,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 15,35</t>
+          <t>5,33; 16,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,26; 15,05</t>
+          <t>5,93; 17,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,09; 27,61</t>
+          <t>12,49; 28,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,67; 30,45</t>
+          <t>18,08; 31,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,76; 28,4</t>
+          <t>18,86; 33,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,28; 28,04</t>
+          <t>18,27; 31,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,5; 20,27</t>
+          <t>17,6; 31,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,85; 24,43</t>
+          <t>22,68; 43,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,18; 20,58</t>
+          <t>13,6; 22,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,98; 20,34</t>
+          <t>14,25; 23,4</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>13,12; 22,03</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>13,25; 22,19</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>20,36; 34,02</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>24,5%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>29,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>32,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>21,45%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>19,7%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>22,3%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>24,96%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 47,53</t>
+          <t>0,0; 67,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 48,5</t>
+          <t>0,0; 69,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,13; 40,12</t>
+          <t>0,0; 66,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 47,26</t>
+          <t>3,75; 67,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,23; 26,85</t>
+          <t>5,61; 74,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,55; 27,32</t>
+          <t>6,78; 29,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,96; 26,18</t>
+          <t>6,63; 30,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,83; 25,94</t>
+          <t>6,76; 28,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,92; 33,59</t>
+          <t>6,72; 28,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,04; 34,59</t>
+          <t>7,69; 32,21</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,04; 29,17</t>
+          <t>8,0; 46,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,19; 32,99</t>
+          <t>8,11; 47,88</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7,81; 44,67</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>9,41; 48,42</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>10,61; 52,72</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>26,52%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20,23%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20,64%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20,14%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19,59%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25,11%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18,6%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18,73%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>18,05%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
           <t>17,92%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>18,85%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>17,97%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>17,49%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>16,45%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>17,53%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>16,13%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>16,07%</t>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>25,8%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,65; 19,41</t>
+          <t>12,47; 24,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,42; 22,4</t>
+          <t>11,89; 25,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,09; 18,65</t>
+          <t>11,31; 23,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,3; 20,29</t>
+          <t>11,53; 23,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,86; 20,84</t>
+          <t>18,36; 40,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,59; 22,02</t>
+          <t>16,31; 24,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,18; 21,1</t>
+          <t>16,4; 24,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,48; 20,66</t>
+          <t>16,64; 24,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,17; 19,12</t>
+          <t>16,13; 23,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,99; 20,79</t>
+          <t>20,57; 32,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,91; 18,79</t>
+          <t>15,58; 22,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,56; 19,08</t>
+          <t>15,82; 23,24</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>15,2; 21,53</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>15,11; 21,81</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>21,25; 33,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas &lt; 6 años (tasa de respuesta: 99,72%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>74360</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>83045</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>69434</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>68138</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>156129</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>78169</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>90228</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>72985</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>67317</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>120775</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>152529</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>173273</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>142419</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>135454</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>276903</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>52960; 103425</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>58029; 113534</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>48911; 94474</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>46448; 95211</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>99728; 273628</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>58990; 104614</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>65954; 118536</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>52729; 96579</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>48473; 89575</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>92491; 160501</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>121541; 189821</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>138122; 212885</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>114675; 178430</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>105538; 169019</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>215188; 424824</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>29948</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>36049</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>30909</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>34155</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>79099</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>84877</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>107626</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>82719</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>80608</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>132285</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>114825</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>143675</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>113628</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>114763</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>211384</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16851; 51430</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20065; 61522</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16967; 53415</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>19144; 57592</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>50254; 113499</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>63294; 111537</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>80215; 140599</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>60541; 104351</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>57764; 103400</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>97816; 188614</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>89030; 147654</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>111839; 183655</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>85204; 143117</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>86245; 144419</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>169738; 283598</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22080</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>27732</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19499</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>25121</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>38108</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12568</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15801</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12255</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12376</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>18647</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>34648</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>43532</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>31754</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>37497</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>56755</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 57319</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 70671</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 52594</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3213; 57863</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6506; 86557</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5598; 24149</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6710; 30751</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5516; 23545</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5548; 23408</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8558; 35868</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13402; 77520</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16466; 97164</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>12586; 71982</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>15828; 81423</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>24117; 119863</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>126389</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>146825</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>119842</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>127413</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>273336</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>175613</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>213654</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>167959</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>160302</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>271707</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>302001</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>360480</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>287801</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>287715</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>545043</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>94155; 185325</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>105728; 225703</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>85980; 178814</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>90783; 185842</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>189258; 415111</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>141589; 211505</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>169753; 257146</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>138772; 203925</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>131976; 196028</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>222532; 350996</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>252970; 362044</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>304333; 447298</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>242286; 343166</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>242536; 350075</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>448959; 699546</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
